--- a/lesson6-1/sensor_data.xlsx
+++ b/lesson6-1/sensor_data.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-29 14:19:27</t>
+          <t>2025-12-05 23:32:24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23.8</v>
+        <v>27.46</v>
       </c>
       <c r="D2" t="n">
-        <v>59.09</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-29 14:24:27</t>
+          <t>2025-12-05 23:37:24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25.15</v>
+        <v>26.56</v>
       </c>
       <c r="D3" t="n">
-        <v>58.8</v>
+        <v>62.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-29 14:29:27</t>
+          <t>2025-12-05 23:42:24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -511,34 +511,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.18</v>
+        <v>25.95</v>
       </c>
       <c r="D4" t="n">
-        <v>61.34</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-11-29 14:34:27</t>
+          <t>2025-12-05 23:47:24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24.64</v>
+        <v>23.61</v>
       </c>
       <c r="D5" t="n">
-        <v>60.68</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-11-29 14:39:27</t>
+          <t>2025-12-05 23:52:24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -547,70 +547,70 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24.55</v>
+        <v>27.98</v>
       </c>
       <c r="D6" t="n">
-        <v>58.35</v>
+        <v>63.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-29 14:44:27</t>
+          <t>2025-12-05 23:57:24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27.21</v>
+        <v>27.17</v>
       </c>
       <c r="D7" t="n">
-        <v>65.06999999999999</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-29 14:49:27</t>
+          <t>2025-12-06 00:02:24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27.79</v>
+        <v>27.6</v>
       </c>
       <c r="D8" t="n">
-        <v>66.44</v>
+        <v>67.20999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-11-29 14:54:27</t>
+          <t>2025-12-06 00:07:24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30.37</v>
+        <v>29.35</v>
       </c>
       <c r="D9" t="n">
-        <v>66.78</v>
+        <v>61.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-11-29 14:59:27</t>
+          <t>2025-12-06 00:12:24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -619,34 +619,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27.8</v>
+        <v>28.15</v>
       </c>
       <c r="D10" t="n">
-        <v>62.09</v>
+        <v>59.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-11-29 15:04:27</t>
+          <t>2025-12-06 00:17:24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31.7</v>
+        <v>30.14</v>
       </c>
       <c r="D11" t="n">
-        <v>65.48</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-11-29 15:09:27</t>
+          <t>2025-12-06 00:22:24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -655,34 +655,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26.81</v>
+        <v>22.05</v>
       </c>
       <c r="D12" t="n">
-        <v>58.74</v>
+        <v>62.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-11-29 15:14:27</t>
+          <t>2025-12-06 00:27:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.64</v>
+        <v>23.99</v>
       </c>
       <c r="D13" t="n">
-        <v>59.06</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-11-29 15:19:27</t>
+          <t>2025-12-06 00:32:24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26.59</v>
+        <v>26.45</v>
       </c>
       <c r="D14" t="n">
-        <v>62.53</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-11-29 15:24:27</t>
+          <t>2025-12-06 00:37:24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -709,34 +709,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.53</v>
+        <v>29.15</v>
       </c>
       <c r="D15" t="n">
-        <v>64.68000000000001</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-11-29 15:29:27</t>
+          <t>2025-12-06 00:42:24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28.28</v>
+        <v>27.4</v>
       </c>
       <c r="D16" t="n">
-        <v>65.7</v>
+        <v>64.93000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-11-29 15:34:27</t>
+          <t>2025-12-06 00:47:24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -745,16 +745,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26.83</v>
+        <v>25.71</v>
       </c>
       <c r="D17" t="n">
-        <v>69.06</v>
+        <v>62.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-11-29 15:39:27</t>
+          <t>2025-12-06 00:52:24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -763,106 +763,106 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>29.9</v>
+        <v>27.85</v>
       </c>
       <c r="D18" t="n">
-        <v>62.69</v>
+        <v>59.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-11-29 15:44:27</t>
+          <t>2025-12-06 00:57:24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27.97</v>
+        <v>31.31</v>
       </c>
       <c r="D19" t="n">
-        <v>60.68</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-11-29 15:49:27</t>
+          <t>2025-12-06 01:02:24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27.36</v>
+        <v>31.66</v>
       </c>
       <c r="D20" t="n">
-        <v>59.58</v>
+        <v>62.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-11-29 15:54:27</t>
+          <t>2025-12-06 01:07:24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30.31</v>
+        <v>30.17</v>
       </c>
       <c r="D21" t="n">
-        <v>66.06999999999999</v>
+        <v>62.83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-11-29 15:59:27</t>
+          <t>2025-12-06 01:12:24</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25.86</v>
+        <v>25.29</v>
       </c>
       <c r="D22" t="n">
-        <v>62.29</v>
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-11-29 16:04:27</t>
+          <t>2025-12-06 01:17:24</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25.95</v>
+        <v>24.07</v>
       </c>
       <c r="D23" t="n">
-        <v>68.66</v>
+        <v>63.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-11-29 16:09:27</t>
+          <t>2025-12-06 01:22:24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -871,34 +871,34 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26.36</v>
+        <v>23.78</v>
       </c>
       <c r="D24" t="n">
-        <v>67.09999999999999</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-11-29 16:14:27</t>
+          <t>2025-12-06 01:27:24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>28.55</v>
+        <v>27.8</v>
       </c>
       <c r="D25" t="n">
-        <v>70.37</v>
+        <v>62.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-11-29 16:19:27</t>
+          <t>2025-12-06 01:32:24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -907,142 +907,142 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>28.39</v>
+        <v>28.1</v>
       </c>
       <c r="D26" t="n">
-        <v>60.89</v>
+        <v>55.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-11-29 16:24:27</t>
+          <t>2025-12-06 01:37:24</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.94</v>
+        <v>29.19</v>
       </c>
       <c r="D27" t="n">
-        <v>60.09</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-11-29 16:29:27</t>
+          <t>2025-12-06 01:42:24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>28.67</v>
+        <v>28.66</v>
       </c>
       <c r="D28" t="n">
-        <v>58.48</v>
+        <v>60.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-11-29 16:34:27</t>
+          <t>2025-12-06 01:47:24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.01</v>
+        <v>26.98</v>
       </c>
       <c r="D29" t="n">
-        <v>59.22</v>
+        <v>58.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-11-29 16:39:27</t>
+          <t>2025-12-06 01:52:24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>31.6</v>
+        <v>28.67</v>
       </c>
       <c r="D30" t="n">
-        <v>59.58</v>
+        <v>60.36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-11-29 16:44:27</t>
+          <t>2025-12-06 01:57:24</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>31.46</v>
+        <v>29.91</v>
       </c>
       <c r="D31" t="n">
-        <v>64.89</v>
+        <v>60.39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-11-29 16:49:27</t>
+          <t>2025-12-06 02:02:24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26.23</v>
+        <v>25.34</v>
       </c>
       <c r="D32" t="n">
-        <v>62.49</v>
+        <v>60.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-11-29 16:54:27</t>
+          <t>2025-12-06 02:07:24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23.44</v>
+        <v>26.95</v>
       </c>
       <c r="D33" t="n">
-        <v>69.81999999999999</v>
+        <v>68.56999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-11-29 16:59:27</t>
+          <t>2025-12-06 02:12:24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1051,34 +1051,34 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28.11</v>
+        <v>25.43</v>
       </c>
       <c r="D34" t="n">
-        <v>62.31</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-11-29 17:04:27</t>
+          <t>2025-12-06 02:17:24</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>27.18</v>
+        <v>26.06</v>
       </c>
       <c r="D35" t="n">
-        <v>58.32</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-11-29 17:09:27</t>
+          <t>2025-12-06 02:22:24</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1087,34 +1087,34 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>29.84</v>
+        <v>24.48</v>
       </c>
       <c r="D36" t="n">
-        <v>64.16</v>
+        <v>58.63</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-11-29 17:14:27</t>
+          <t>2025-12-06 02:27:24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>26.75</v>
+        <v>24.82</v>
       </c>
       <c r="D37" t="n">
-        <v>64.7</v>
+        <v>65.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-11-29 17:19:27</t>
+          <t>2025-12-06 02:32:24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>28.52</v>
+        <v>25.02</v>
       </c>
       <c r="D38" t="n">
-        <v>63.8</v>
+        <v>65.81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-11-29 17:24:27</t>
+          <t>2025-12-06 02:37:24</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1141,52 +1141,52 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>26.31</v>
+        <v>31.32</v>
       </c>
       <c r="D39" t="n">
-        <v>65.33</v>
+        <v>67.56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-11-29 17:29:27</t>
+          <t>2025-12-06 02:42:24</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>26.9</v>
+        <v>26.77</v>
       </c>
       <c r="D40" t="n">
-        <v>68.33</v>
+        <v>65.45999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-11-29 17:34:27</t>
+          <t>2025-12-06 02:47:24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30.94</v>
+        <v>29.5</v>
       </c>
       <c r="D41" t="n">
-        <v>67.52</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-11-29 17:39:27</t>
+          <t>2025-12-06 02:52:24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1195,70 +1195,70 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>27.16</v>
+        <v>26.68</v>
       </c>
       <c r="D42" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-11-29 17:44:27</t>
+          <t>2025-12-06 02:57:24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26.47</v>
+        <v>27.21</v>
       </c>
       <c r="D43" t="n">
-        <v>57.78</v>
+        <v>60.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-11-29 17:49:27</t>
+          <t>2025-12-06 03:02:24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>23.58</v>
+        <v>26.6</v>
       </c>
       <c r="D44" t="n">
-        <v>60</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-11-29 17:54:27</t>
+          <t>2025-12-06 03:07:24</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24.75</v>
+        <v>26.09</v>
       </c>
       <c r="D45" t="n">
-        <v>66.01000000000001</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-11-29 17:59:27</t>
+          <t>2025-12-06 03:12:24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1267,34 +1267,34 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26.39</v>
+        <v>27.28</v>
       </c>
       <c r="D46" t="n">
-        <v>61.86</v>
+        <v>65.89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11-29 18:04:27</t>
+          <t>2025-12-06 03:17:24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>開</t>
+          <t>關</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>26.23</v>
+        <v>27.87</v>
       </c>
       <c r="D47" t="n">
-        <v>61.71</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-29 18:09:27</t>
+          <t>2025-12-06 03:22:24</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1303,34 +1303,34 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30.84</v>
+        <v>30.39</v>
       </c>
       <c r="D48" t="n">
-        <v>64.17</v>
+        <v>61.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-29 18:14:27</t>
+          <t>2025-12-06 03:27:24</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>關</t>
+          <t>開</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30.83</v>
+        <v>31.28</v>
       </c>
       <c r="D49" t="n">
-        <v>70.09999999999999</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-29 18:19:27</t>
+          <t>2025-12-06 03:32:24</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1339,16 +1339,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29.92</v>
+        <v>31.11</v>
       </c>
       <c r="D50" t="n">
-        <v>62.62</v>
+        <v>60.79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-29 18:24:27</t>
+          <t>2025-12-06 03:37:24</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30.07</v>
+        <v>29.08</v>
       </c>
       <c r="D51" t="n">
-        <v>56.31</v>
+        <v>57.95</v>
       </c>
     </row>
   </sheetData>
